--- a/Results.xlsx
+++ b/Results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\my\Documents\Technion\2022-23\Winter 2022-23\AI &amp; Robotics\Homeworks\HW#3 (Final Project)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1A5AFBF-95AE-440C-9EAE-D2A61427FEA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA1802C-3FB4-4364-99C5-4A9297966BF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -101,7 +101,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -128,90 +128,39 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
         <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="medium">
+      <right style="thick">
         <color indexed="64"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
+      <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -219,73 +168,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3474,13 +3407,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1348740</xdr:colOff>
+      <xdr:colOff>1135380</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>87746</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:to>
@@ -3773,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAE8C5AC-A7EA-440B-A7A4-D7B03CECA072}">
-  <dimension ref="B1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="165" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3788,91 +3721,103 @@
     <col min="5" max="5" width="21.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+    </row>
+    <row r="2" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="17">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="20"/>
+      <c r="B3" s="21">
         <v>500</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="1">
         <v>110</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="3">
         <v>319.96587381359996</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>0.34684022352220845</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B4" s="17">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21">
         <v>400</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="1">
         <v>110</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="3">
         <v>296.75613279360005</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="17">
         <v>0.37318024121338816</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="17">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21">
         <v>300</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="1">
         <v>100</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="3">
         <v>261.926976061</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="17">
         <v>0.39197013024409189</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="17">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21">
         <v>200</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="1">
         <v>68</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="3">
         <v>176.21977581979996</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="17">
         <v>0.38493719465502918</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="20">
+    <row r="7" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20"/>
+      <c r="B7" s="14">
         <v>100</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="14">
         <v>34</v>
       </c>
-      <c r="D7" s="25">
+      <c r="D7" s="15">
         <v>80.625143384919994</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="16">
         <v>0.4190672647047009</v>
       </c>
     </row>
+    <row r="8" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3884,7 +3829,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22:H26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3926,7 +3871,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="8">
         <v>500</v>
       </c>
       <c r="B2" s="1">
@@ -3939,24 +3884,24 @@
         <v>353.26104903200002</v>
       </c>
       <c r="E2" s="3">
-        <f>C2/D2</f>
+        <f t="shared" ref="E2:E26" si="0">C2/D2</f>
         <v>0.31138445719226659</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="10">
         <f>AVERAGE(C2:C6)</f>
         <v>110</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="10">
         <f>AVERAGE(D2:D6)</f>
         <v>319.96587381359996</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="10">
         <f>AVERAGE(E2:E6)</f>
         <v>0.34684022352220845</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="7"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="1">
         <v>2</v>
       </c>
@@ -3967,15 +3912,15 @@
         <v>291.09964799900001</v>
       </c>
       <c r="E3" s="3">
-        <f>C3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.37787747513998327</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="7"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="1">
         <v>3</v>
       </c>
@@ -3986,15 +3931,15 @@
         <v>284.34785199200002</v>
       </c>
       <c r="E4" s="3">
-        <f>C4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.38685011766185168</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
+      <c r="A5" s="8"/>
       <c r="B5" s="1">
         <v>4</v>
       </c>
@@ -4005,15 +3950,15 @@
         <v>356.11577892299999</v>
       </c>
       <c r="E5" s="3">
-        <f>C5/D5</f>
+        <f t="shared" si="0"/>
         <v>0.30888830686658342</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
+      <c r="A6" s="12"/>
       <c r="B6" s="1">
         <v>5</v>
       </c>
@@ -4023,16 +3968,16 @@
       <c r="D6" s="3">
         <v>315.00504112200002</v>
       </c>
-      <c r="E6" s="22">
-        <f>C6/D6</f>
+      <c r="E6" s="6">
+        <f t="shared" si="0"/>
         <v>0.34920076075035733</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <v>400</v>
       </c>
       <c r="B7" s="4">
@@ -4045,24 +3990,24 @@
         <v>308.479581118</v>
       </c>
       <c r="E7" s="3">
-        <f>C7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.35658762113633274</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="9">
         <f>AVERAGE(C7:C11)</f>
         <v>110</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="9">
         <f>AVERAGE(D7:D11)</f>
         <v>296.75613279360005</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="9">
         <f>AVERAGE(E7:E11)</f>
         <v>0.37318024121338816</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
+      <c r="A8" s="8"/>
       <c r="B8" s="1">
         <v>2</v>
       </c>
@@ -4073,15 +4018,15 @@
         <v>298.12519407299999</v>
       </c>
       <c r="E8" s="3">
-        <f>C8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.3689725061380254</v>
       </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
+      <c r="A9" s="8"/>
       <c r="B9" s="1">
         <v>3</v>
       </c>
@@ -4092,15 +4037,15 @@
         <v>335.77388381999998</v>
       </c>
       <c r="E9" s="3">
-        <f>C9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.32760141660978093</v>
       </c>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
+      <c r="A10" s="8"/>
       <c r="B10" s="1">
         <v>4</v>
       </c>
@@ -4111,15 +4056,15 @@
         <v>272.47431492800001</v>
       </c>
       <c r="E10" s="3">
-        <f>C10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.40370777711310862</v>
       </c>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
+      <c r="A11" s="12"/>
       <c r="B11" s="1">
         <v>5</v>
       </c>
@@ -4129,16 +4074,16 @@
       <c r="D11" s="3">
         <v>268.92769002900002</v>
       </c>
-      <c r="E11" s="22">
-        <f>C11/D11</f>
+      <c r="E11" s="6">
+        <f t="shared" si="0"/>
         <v>0.40903188506969312</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <v>300</v>
       </c>
       <c r="B12" s="4">
@@ -4151,24 +4096,24 @@
         <v>219.981819153</v>
       </c>
       <c r="E12" s="3">
-        <f>C12/D12</f>
+        <f t="shared" si="0"/>
         <v>0.50004132352180286</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="9">
         <f>AVERAGE(C12:C16)</f>
         <v>100</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="9">
         <f>AVERAGE(D12:D16)</f>
         <v>261.926976061</v>
       </c>
-      <c r="H12" s="11">
+      <c r="H12" s="9">
         <f>AVERAGE(E12:E16)</f>
         <v>0.39197013024409189</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
+      <c r="A13" s="8"/>
       <c r="B13" s="1">
         <v>2</v>
       </c>
@@ -4179,15 +4124,15 @@
         <v>287.79091405899999</v>
       </c>
       <c r="E13" s="3">
-        <f>C13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.38222193483651434</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
+      <c r="A14" s="8"/>
       <c r="B14" s="1">
         <v>3</v>
       </c>
@@ -4198,15 +4143,15 @@
         <v>258.752478123</v>
       </c>
       <c r="E14" s="3">
-        <f>C14/D14</f>
+        <f t="shared" si="0"/>
         <v>0.42511670148221981</v>
       </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
+      <c r="A15" s="8"/>
       <c r="B15" s="1">
         <v>4</v>
       </c>
@@ -4217,15 +4162,15 @@
         <v>300</v>
       </c>
       <c r="E15" s="3">
-        <f>C15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.2</v>
       </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
+      <c r="A16" s="12"/>
       <c r="B16" s="1">
         <v>5</v>
       </c>
@@ -4235,16 +4180,16 @@
       <c r="D16" s="3">
         <v>243.10966897</v>
       </c>
-      <c r="E16" s="22">
-        <f>C16/D16</f>
+      <c r="E16" s="6">
+        <f t="shared" si="0"/>
         <v>0.45247069137992252</v>
       </c>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="9">
+      <c r="A17" s="7">
         <v>200</v>
       </c>
       <c r="B17" s="4">
@@ -4257,24 +4202,24 @@
         <v>167.017216206</v>
       </c>
       <c r="E17" s="3">
-        <f>C17/D17</f>
+        <f t="shared" si="0"/>
         <v>0.47899253632228872</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="9">
         <f>AVERAGE(C17:C21)</f>
         <v>68</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="9">
         <f>AVERAGE(D17:D21)</f>
         <v>176.21977581979996</v>
       </c>
-      <c r="H17" s="11">
+      <c r="H17" s="9">
         <f>AVERAGE(E17:E21)</f>
         <v>0.38493719465502918</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
+      <c r="A18" s="8"/>
       <c r="B18" s="1">
         <v>2</v>
       </c>
@@ -4285,15 +4230,15 @@
         <v>179.39843893099999</v>
       </c>
       <c r="E18" s="3">
-        <f>C18/D18</f>
+        <f t="shared" si="0"/>
         <v>0.22296738053213916</v>
       </c>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
+      <c r="A19" s="8"/>
       <c r="B19" s="1">
         <v>3</v>
       </c>
@@ -4304,15 +4249,15 @@
         <v>191.85677719099999</v>
       </c>
       <c r="E19" s="3">
-        <f>C19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.41697771207924161</v>
       </c>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-      <c r="H19" s="12"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
+      <c r="A20" s="8"/>
       <c r="B20" s="1">
         <v>4</v>
       </c>
@@ -4323,15 +4268,15 @@
         <v>165.57249999000001</v>
       </c>
       <c r="E20" s="3">
-        <f>C20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.2415860121844863</v>
       </c>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="12"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
+      <c r="A21" s="8"/>
       <c r="B21" s="1">
         <v>5</v>
       </c>
@@ -4342,15 +4287,15 @@
         <v>177.253946781</v>
       </c>
       <c r="E21" s="3">
-        <f>C21/D21</f>
+        <f t="shared" si="0"/>
         <v>0.5641623321569903</v>
       </c>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-      <c r="H21" s="12"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="9">
+      <c r="A22" s="7">
         <v>100</v>
       </c>
       <c r="B22" s="4">
@@ -4363,24 +4308,24 @@
         <v>89.811487913099995</v>
       </c>
       <c r="E22" s="5">
-        <f>C22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.55672165289566422</v>
       </c>
-      <c r="F22" s="11">
+      <c r="F22" s="9">
         <f>AVERAGE(C22:C26)</f>
         <v>34</v>
       </c>
-      <c r="G22" s="11">
+      <c r="G22" s="9">
         <f>AVERAGE(D22:D26)</f>
         <v>80.625143384919994</v>
       </c>
-      <c r="H22" s="11">
+      <c r="H22" s="9">
         <f>AVERAGE(E22:E26)</f>
         <v>0.4190672647047009</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="10"/>
+      <c r="A23" s="8"/>
       <c r="B23" s="1">
         <v>2</v>
       </c>
@@ -4391,15 +4336,15 @@
         <v>71.556089878099996</v>
       </c>
       <c r="E23" s="3">
-        <f>C23/D23</f>
+        <f t="shared" si="0"/>
         <v>0.41925152773309388</v>
       </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
-      <c r="H23" s="12"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10"/>
+      <c r="A24" s="8"/>
       <c r="B24" s="1">
         <v>3</v>
       </c>
@@ -4410,15 +4355,15 @@
         <v>75.388597011599998</v>
       </c>
       <c r="E24" s="3">
-        <f>C24/D24</f>
+        <f t="shared" si="0"/>
         <v>0.39793816557408435</v>
       </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="12"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="10"/>
+      <c r="A25" s="8"/>
       <c r="B25" s="1">
         <v>4</v>
       </c>
@@ -4429,15 +4374,15 @@
         <v>84.339879035899997</v>
       </c>
       <c r="E25" s="3">
-        <f>C25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.35570361663941019</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
+      <c r="A26" s="8"/>
       <c r="B26" s="1">
         <v>5</v>
       </c>
@@ -4448,15 +4393,19 @@
         <v>82.029663085899998</v>
       </c>
       <c r="E26" s="3">
-        <f>C26/D26</f>
+        <f t="shared" si="0"/>
         <v>0.36572136068125183</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="G7:G11"/>
+    <mergeCell ref="G12:G16"/>
+    <mergeCell ref="G17:G21"/>
     <mergeCell ref="A22:A26"/>
     <mergeCell ref="F22:F26"/>
     <mergeCell ref="G22:G26"/>
@@ -4473,10 +4422,6 @@
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="G7:G11"/>
-    <mergeCell ref="G12:G16"/>
-    <mergeCell ref="G17:G21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
